--- a/data/instances/epsp/demo/2x(4+2).xlsx
+++ b/data/instances/epsp/demo/2x(4+2).xlsx
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -607,10 +607,10 @@
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
